--- a/doc/11.14.2013 Meeting/Result.xlsx
+++ b/doc/11.14.2013 Meeting/Result.xlsx
@@ -4,22 +4,25 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="linear weights" sheetId="1" r:id="rId1"/>
     <sheet name="SlotValue" sheetId="2" r:id="rId2"/>
     <sheet name="new Topline" sheetId="3" r:id="rId3"/>
+    <sheet name="rank" sheetId="4" r:id="rId4"/>
+    <sheet name="H2" sheetId="5" r:id="rId5"/>
+    <sheet name="example" sheetId="6" r:id="rId6"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId7"/>
   </externalReferences>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="155">
   <si>
     <t>dstc2_train</t>
   </si>
@@ -379,14 +382,135 @@
   </si>
   <si>
     <t>topline3_dev</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data </t>
+  </si>
+  <si>
+    <t xml:space="preserve">total </t>
+  </si>
+  <si>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>H3</t>
+  </si>
+  <si>
+    <t>H1_train</t>
+  </si>
+  <si>
+    <t>H1_dev</t>
+  </si>
+  <si>
+    <t>H2_dev</t>
+  </si>
+  <si>
+    <t>H2_train</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn_index </t>
+  </si>
+  <si>
+    <t xml:space="preserve">output trans </t>
+  </si>
+  <si>
+    <t xml:space="preserve">input trans </t>
+  </si>
+  <si>
+    <t xml:space="preserve">top slu </t>
+  </si>
+  <si>
+    <t xml:space="preserve">goal_label </t>
+  </si>
+  <si>
+    <t xml:space="preserve">method_label </t>
+  </si>
+  <si>
+    <t xml:space="preserve">request_slots </t>
+  </si>
+  <si>
+    <t xml:space="preserve">rank </t>
+  </si>
+  <si>
+    <t xml:space="preserve">rank_H2 </t>
+  </si>
+  <si>
+    <t>rank_H3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yippee noodle bar is a great restaurant serving asian oriental food and it is in the moderate price range </t>
+  </si>
+  <si>
+    <t xml:space="preserve">is there anything else </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">food=asian oriental;pricerange=moderate </t>
+  </si>
+  <si>
+    <t xml:space="preserve">byalternatives </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can I help you with anything else? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">could i have the address and phone number </t>
+  </si>
+  <si>
+    <t xml:space="preserve">request(slot=addr) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">phone;addr </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sure , yippee noodle bar is on 40428 King Street City Centre </t>
+  </si>
+  <si>
+    <t xml:space="preserve">phone number </t>
+  </si>
+  <si>
+    <t xml:space="preserve">request(slot=phone) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">phone </t>
+  </si>
+  <si>
+    <t>predicted_request</t>
+  </si>
+  <si>
+    <t>addr</t>
+  </si>
+  <si>
+    <t>phone</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -402,7 +526,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -410,12 +534,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1210,11 +1361,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="100093312"/>
-        <c:axId val="100156544"/>
+        <c:axId val="102410880"/>
+        <c:axId val="102415744"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="100093312"/>
+        <c:axId val="102410880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1224,7 +1375,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100156544"/>
+        <c:crossAx val="102415744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1232,7 +1383,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100156544"/>
+        <c:axId val="102415744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.4"/>
@@ -1244,7 +1395,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100093312"/>
+        <c:crossAx val="102410880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1778,11 +1929,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="103327232"/>
-        <c:axId val="103328768"/>
+        <c:axId val="108009728"/>
+        <c:axId val="108019712"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="103327232"/>
+        <c:axId val="108009728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1792,7 +1943,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103328768"/>
+        <c:crossAx val="108019712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1800,7 +1951,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="103328768"/>
+        <c:axId val="108019712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.8"/>
@@ -1812,7 +1963,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103327232"/>
+        <c:crossAx val="108009728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2336,11 +2487,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="102553088"/>
-        <c:axId val="102554624"/>
+        <c:axId val="108150784"/>
+        <c:axId val="108152320"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="102553088"/>
+        <c:axId val="108150784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2350,7 +2501,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102554624"/>
+        <c:crossAx val="108152320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2358,7 +2509,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="102554624"/>
+        <c:axId val="108152320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.8"/>
@@ -2370,7 +2521,1969 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102553088"/>
+        <c:crossAx val="108150784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Joint Goal </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Topline!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2waymodel_topline _train</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:cat>
+            <c:numRef>
+              <c:f>[1]Topline!$C$2:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Topline!$D$2:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.68750549999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.75072340000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.77562469999999994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.78448050000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.79359930000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.7987725</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.80035069999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.80473479999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.80543620000000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.80543620000000005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.80543620000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Topline!$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2waymodel_topline _dev</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Topline!$D$14:$D$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.60114699999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.66319079999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.68482790000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.70177270000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.71011469999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.71611049999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.71897809999999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.72106360000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.7241919</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.7244526</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.7244526</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Topline!$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HWUbaseline_train</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Topline!$R$2:$R$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.73195969999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.73195969999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.73195969999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.73195969999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.73195969999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.73195969999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.73195969999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.73195969999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.73195969999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.73195969999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.73195969999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Topline!$R$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HWUbaseline_dev</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Topline!$R$14:$R$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.62304479999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.62304479999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.62304479999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.62304479999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.62304479999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.62304479999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.62304479999999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.62304479999999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.62304479999999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.62304479999999995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.62304479999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'new Topline'!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>topline1_train</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'new Topline'!$K$2:$K$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.74563789999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.80675140000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.82621659999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.83156509999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.83787809999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.84243749999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.84436650000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8486629</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.84901360000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.84901360000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.84901360000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'new Topline'!$K$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>topline1_dev</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'new Topline'!$K$14:$K$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.67440040000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.73331599999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.75260689999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.76824820000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.77711160000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.78310740000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.78362880000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.78571429999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.78571429999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.78597499999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.78597499999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'new Topline'!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>topline2_train</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'new Topline'!$N$2:$N$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.85322229999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.85322229999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.85322229999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.85322229999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.85322229999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.85322229999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.85322229999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.85322229999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.85322229999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.85322229999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.85322229999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'new Topline'!$N$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>topline2_dev</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'new Topline'!$N$14:$N$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.78753910000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.78753910000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.78753910000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.78753910000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.78753910000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.78753910000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.78753910000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.78753910000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.78753910000000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.78753910000000005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.78753910000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'new Topline'!$Q$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>topline3_train</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'new Topline'!$Q$2:$Q$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.95808859999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.95808859999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.95808859999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.95808859999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.95808859999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.95808859999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.95808859999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.95808859999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.95808859999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.95808859999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.95808859999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'new Topline'!$Q$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>topline3_dev</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'new Topline'!$Q$14:$Q$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.94942649999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.94942649999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.94942649999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.94942649999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.94942649999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.94942649999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.94942649999999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.94942649999999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.94942649999999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.94942649999999995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.94942649999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="100376576"/>
+        <c:axId val="100378112"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="100376576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="100378112"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="100378112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="100376576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Method</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.5611093767464101E-2"/>
+          <c:y val="0.14640208432088142"/>
+          <c:w val="0.61736384273551714"/>
+          <c:h val="0.75477906152635432"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="16"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'H2'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>H1_train</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>[1]Topline!$C$2:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Topline!$F$2:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.88382830000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.92562920000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.93773399999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.94234960000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.94443960000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.94565880000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.94679089999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.94748759999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.94757469999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.94757469999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.94757469999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="17"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'H2'!$D$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>H1_dev</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Topline!$F$14:$F$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.8564408</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.88644590000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.89782720000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.90506980000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.90972580000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.91308849999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.91438180000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.91877909999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.91877909999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.91903780000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.91903780000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="22"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'H2'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>H2_train</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'H2'!$I$2:$I$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.78542190000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.81877560000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.83331880000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.83863100000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.84246279999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.84368200000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.84446569999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.84559779999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.84585909999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.84585909999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.84585909999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="23"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'H2'!$G$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>H2_dev</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'H2'!$I$14:$I$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.74185199999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.7860838</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.79901710000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.80832899999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.81065699999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.81479570000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.81867559999999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.82152099999999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.82152099999999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.82152099999999995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.82152099999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'new Topline'!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>topline1_train</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'new Topline'!$M$2:$M$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.90516419999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.95811199999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.97370029999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.97979620000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.98232169999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.98371509999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.98458590000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.98467300000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.98467300000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.98467300000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.98467300000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'new Topline'!$K$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>topline1_dev</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'new Topline'!$M$14:$M$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.88411799999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.94231759999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.96197619999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.96818420000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.97335749999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.97490949999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.97646149999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.97723749999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.97904809999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.97904809999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.97904809999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="100390784"/>
+        <c:axId val="100392320"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="100390784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="100392320"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="100392320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.60000000000000009"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="100390784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Requested</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'H2'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>H1_train</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>[1]Topline!$C$2:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Topline!$E$2:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.93828489999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.94746790000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.94881839999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.95003380000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.95030380000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.95003380000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.95016880000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.95138420000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9520594</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9520594</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.9520594</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'H2'!$D$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>H1_dev</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Topline!$E$14:$E$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.93689149999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.94734940000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.94951319999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.94987379999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.94951319999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.95023440000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.95059499999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.94843129999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.94951319999999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.94951319999999995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.94951319999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'H2'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>H2_train</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'H2'!$H$2:$H$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.87008779999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.92072920000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.92896690000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.93396349999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.93477379999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.93625930000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.93774480000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.94044559999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.94098579999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.94098579999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.94098579999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="15"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'H2'!$G$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>H2_dev</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'H2'!$H$14:$H$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.88388029999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.92210599999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.93328529999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.93436710000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.93544899999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.93617019999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.93761269999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.93580960000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.93869460000000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.93869460000000005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.93869460000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'new Topline'!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>topline1_train</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'new Topline'!$L$2:$L$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.93936529999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.96137740000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.96394329999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.96542879999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.96610399999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.96623899999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.96637410000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.96812960000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.96866980000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.96866980000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.96866980000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'new Topline'!$K$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>topline1_dev</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'new Topline'!$L$14:$L$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.93797330000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.95528310000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.95888930000000006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.95852870000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.95636489999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.95672559999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.9570862</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.95528310000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.95636489999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.95636489999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.95636489999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="100735232"/>
+        <c:axId val="100737024"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="100735232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="100737024"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="100737024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.8"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="100735232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2396,16 +4509,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>76201</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>40480</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>421482</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>4761</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>21432</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>140493</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>366714</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2428,16 +4541,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>325438</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>138909</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>289719</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>103190</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>112713</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>186533</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>76994</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>150814</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2460,20 +4573,121 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>543717</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>107156</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>115090</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>178592</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>400843</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>129381</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>579436</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>10317</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>102394</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>47626</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>11907</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>175419</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>96048</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>143672</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>536571</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>367504</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -2504,6 +4718,7 @@
       <sheetName val="Method"/>
       <sheetName val="Topline"/>
       <sheetName val="H3"/>
+      <sheetName val="Sheet1"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
@@ -2513,12 +4728,6 @@
       <sheetData sheetId="4" refreshError="1"/>
       <sheetData sheetId="5">
         <row r="1">
-          <cell r="G1" t="str">
-            <v xml:space="preserve">baseline_train </v>
-          </cell>
-          <cell r="N1" t="str">
-            <v>baseline_focus_train</v>
-          </cell>
           <cell r="R1" t="str">
             <v>HWUbaseline_train</v>
           </cell>
@@ -2539,29 +4748,8 @@
           <cell r="F2">
             <v>0.88382830000000001</v>
           </cell>
-          <cell r="G2">
-            <v>0.58228849999999999</v>
-          </cell>
-          <cell r="H2">
-            <v>0.90938560000000002</v>
-          </cell>
-          <cell r="I2">
-            <v>0.8360185</v>
-          </cell>
-          <cell r="N2">
-            <v>0.7153003</v>
-          </cell>
-          <cell r="O2">
-            <v>0.90573939999999997</v>
-          </cell>
-          <cell r="P2">
-            <v>0.85805100000000001</v>
-          </cell>
           <cell r="R2">
             <v>0.73195969999999999</v>
-          </cell>
-          <cell r="S2">
-            <v>0.91654290000000005</v>
           </cell>
           <cell r="T2">
             <v>0.88800840000000003</v>
@@ -2580,29 +4768,8 @@
           <cell r="F3">
             <v>0.92562920000000004</v>
           </cell>
-          <cell r="G3">
-            <v>0.58228849999999999</v>
-          </cell>
-          <cell r="H3">
-            <v>0.90938560000000002</v>
-          </cell>
-          <cell r="I3">
-            <v>0.8360185</v>
-          </cell>
-          <cell r="N3">
-            <v>0.7153003</v>
-          </cell>
-          <cell r="O3">
-            <v>0.90573939999999997</v>
-          </cell>
-          <cell r="P3">
-            <v>0.85805100000000001</v>
-          </cell>
           <cell r="R3">
             <v>0.73195969999999999</v>
-          </cell>
-          <cell r="S3">
-            <v>0.91654290000000005</v>
           </cell>
           <cell r="T3">
             <v>0.88800840000000003</v>
@@ -2621,29 +4788,8 @@
           <cell r="F4">
             <v>0.93773399999999996</v>
           </cell>
-          <cell r="G4">
-            <v>0.58228849999999999</v>
-          </cell>
-          <cell r="H4">
-            <v>0.90938560000000002</v>
-          </cell>
-          <cell r="I4">
-            <v>0.8360185</v>
-          </cell>
-          <cell r="N4">
-            <v>0.7153003</v>
-          </cell>
-          <cell r="O4">
-            <v>0.90573939999999997</v>
-          </cell>
-          <cell r="P4">
-            <v>0.85805100000000001</v>
-          </cell>
           <cell r="R4">
             <v>0.73195969999999999</v>
-          </cell>
-          <cell r="S4">
-            <v>0.91654290000000005</v>
           </cell>
           <cell r="T4">
             <v>0.88800840000000003</v>
@@ -2662,29 +4808,8 @@
           <cell r="F5">
             <v>0.94234960000000001</v>
           </cell>
-          <cell r="G5">
-            <v>0.58228849999999999</v>
-          </cell>
-          <cell r="H5">
-            <v>0.90938560000000002</v>
-          </cell>
-          <cell r="I5">
-            <v>0.8360185</v>
-          </cell>
-          <cell r="N5">
-            <v>0.7153003</v>
-          </cell>
-          <cell r="O5">
-            <v>0.90573939999999997</v>
-          </cell>
-          <cell r="P5">
-            <v>0.85805100000000001</v>
-          </cell>
           <cell r="R5">
             <v>0.73195969999999999</v>
-          </cell>
-          <cell r="S5">
-            <v>0.91654290000000005</v>
           </cell>
           <cell r="T5">
             <v>0.88800840000000003</v>
@@ -2703,29 +4828,8 @@
           <cell r="F6">
             <v>0.94443960000000005</v>
           </cell>
-          <cell r="G6">
-            <v>0.58228849999999999</v>
-          </cell>
-          <cell r="H6">
-            <v>0.90938560000000002</v>
-          </cell>
-          <cell r="I6">
-            <v>0.8360185</v>
-          </cell>
-          <cell r="N6">
-            <v>0.7153003</v>
-          </cell>
-          <cell r="O6">
-            <v>0.90573939999999997</v>
-          </cell>
-          <cell r="P6">
-            <v>0.85805100000000001</v>
-          </cell>
           <cell r="R6">
             <v>0.73195969999999999</v>
-          </cell>
-          <cell r="S6">
-            <v>0.91654290000000005</v>
           </cell>
           <cell r="T6">
             <v>0.88800840000000003</v>
@@ -2744,29 +4848,8 @@
           <cell r="F7">
             <v>0.94565880000000002</v>
           </cell>
-          <cell r="G7">
-            <v>0.58228849999999999</v>
-          </cell>
-          <cell r="H7">
-            <v>0.90938560000000002</v>
-          </cell>
-          <cell r="I7">
-            <v>0.8360185</v>
-          </cell>
-          <cell r="N7">
-            <v>0.7153003</v>
-          </cell>
-          <cell r="O7">
-            <v>0.90573939999999997</v>
-          </cell>
-          <cell r="P7">
-            <v>0.85805100000000001</v>
-          </cell>
           <cell r="R7">
             <v>0.73195969999999999</v>
-          </cell>
-          <cell r="S7">
-            <v>0.91654290000000005</v>
           </cell>
           <cell r="T7">
             <v>0.88800840000000003</v>
@@ -2785,29 +4868,8 @@
           <cell r="F8">
             <v>0.94679089999999999</v>
           </cell>
-          <cell r="G8">
-            <v>0.58228849999999999</v>
-          </cell>
-          <cell r="H8">
-            <v>0.90938560000000002</v>
-          </cell>
-          <cell r="I8">
-            <v>0.8360185</v>
-          </cell>
-          <cell r="N8">
-            <v>0.7153003</v>
-          </cell>
-          <cell r="O8">
-            <v>0.90573939999999997</v>
-          </cell>
-          <cell r="P8">
-            <v>0.85805100000000001</v>
-          </cell>
           <cell r="R8">
             <v>0.73195969999999999</v>
-          </cell>
-          <cell r="S8">
-            <v>0.91654290000000005</v>
           </cell>
           <cell r="T8">
             <v>0.88800840000000003</v>
@@ -2826,29 +4888,8 @@
           <cell r="F9">
             <v>0.94748759999999999</v>
           </cell>
-          <cell r="G9">
-            <v>0.58228849999999999</v>
-          </cell>
-          <cell r="H9">
-            <v>0.90938560000000002</v>
-          </cell>
-          <cell r="I9">
-            <v>0.8360185</v>
-          </cell>
-          <cell r="N9">
-            <v>0.7153003</v>
-          </cell>
-          <cell r="O9">
-            <v>0.90573939999999997</v>
-          </cell>
-          <cell r="P9">
-            <v>0.85805100000000001</v>
-          </cell>
           <cell r="R9">
             <v>0.73195969999999999</v>
-          </cell>
-          <cell r="S9">
-            <v>0.91654290000000005</v>
           </cell>
           <cell r="T9">
             <v>0.88800840000000003</v>
@@ -2867,29 +4908,8 @@
           <cell r="F10">
             <v>0.94757469999999999</v>
           </cell>
-          <cell r="G10">
-            <v>0.58228849999999999</v>
-          </cell>
-          <cell r="H10">
-            <v>0.90938560000000002</v>
-          </cell>
-          <cell r="I10">
-            <v>0.8360185</v>
-          </cell>
-          <cell r="N10">
-            <v>0.7153003</v>
-          </cell>
-          <cell r="O10">
-            <v>0.90573939999999997</v>
-          </cell>
-          <cell r="P10">
-            <v>0.85805100000000001</v>
-          </cell>
           <cell r="R10">
             <v>0.73195969999999999</v>
-          </cell>
-          <cell r="S10">
-            <v>0.91654290000000005</v>
           </cell>
           <cell r="T10">
             <v>0.88800840000000003</v>
@@ -2908,29 +4928,8 @@
           <cell r="F11">
             <v>0.94757469999999999</v>
           </cell>
-          <cell r="G11">
-            <v>0.58228849999999999</v>
-          </cell>
-          <cell r="H11">
-            <v>0.90938560000000002</v>
-          </cell>
-          <cell r="I11">
-            <v>0.8360185</v>
-          </cell>
-          <cell r="N11">
-            <v>0.7153003</v>
-          </cell>
-          <cell r="O11">
-            <v>0.90573939999999997</v>
-          </cell>
-          <cell r="P11">
-            <v>0.85805100000000001</v>
-          </cell>
           <cell r="R11">
             <v>0.73195969999999999</v>
-          </cell>
-          <cell r="S11">
-            <v>0.91654290000000005</v>
           </cell>
           <cell r="T11">
             <v>0.88800840000000003</v>
@@ -2949,41 +4948,14 @@
           <cell r="F12">
             <v>0.94757469999999999</v>
           </cell>
-          <cell r="G12">
-            <v>0.58228849999999999</v>
-          </cell>
-          <cell r="H12">
-            <v>0.90938560000000002</v>
-          </cell>
-          <cell r="I12">
-            <v>0.8360185</v>
-          </cell>
-          <cell r="N12">
-            <v>0.7153003</v>
-          </cell>
-          <cell r="O12">
-            <v>0.90573939999999997</v>
-          </cell>
-          <cell r="P12">
-            <v>0.85805100000000001</v>
-          </cell>
           <cell r="R12">
             <v>0.73195969999999999</v>
           </cell>
-          <cell r="S12">
-            <v>0.91654290000000005</v>
-          </cell>
           <cell r="T12">
             <v>0.88800840000000003</v>
           </cell>
         </row>
         <row r="13">
-          <cell r="G13" t="str">
-            <v>baseline_dev</v>
-          </cell>
-          <cell r="N13" t="str">
-            <v>baseline_focus_dev</v>
-          </cell>
           <cell r="R13" t="str">
             <v>HWUbaseline_dev</v>
           </cell>
@@ -3001,24 +4973,6 @@
           <cell r="F14">
             <v>0.8564408</v>
           </cell>
-          <cell r="G14">
-            <v>0.50104280000000001</v>
-          </cell>
-          <cell r="H14">
-            <v>0.90299309999999999</v>
-          </cell>
-          <cell r="I14">
-            <v>0.81298499999999996</v>
-          </cell>
-          <cell r="N14">
-            <v>0.61209590000000003</v>
-          </cell>
-          <cell r="O14">
-            <v>0.89361699999999999</v>
-          </cell>
-          <cell r="P14">
-            <v>0.83031560000000004</v>
-          </cell>
           <cell r="R14">
             <v>0.62304479999999995</v>
           </cell>
@@ -3036,24 +4990,6 @@
           <cell r="F15">
             <v>0.88644590000000001</v>
           </cell>
-          <cell r="G15">
-            <v>0.50104280000000001</v>
-          </cell>
-          <cell r="H15">
-            <v>0.90299309999999999</v>
-          </cell>
-          <cell r="I15">
-            <v>0.81298499999999996</v>
-          </cell>
-          <cell r="N15">
-            <v>0.61209590000000003</v>
-          </cell>
-          <cell r="O15">
-            <v>0.89361699999999999</v>
-          </cell>
-          <cell r="P15">
-            <v>0.83031560000000004</v>
-          </cell>
           <cell r="R15">
             <v>0.62304479999999995</v>
           </cell>
@@ -3071,24 +5007,6 @@
           <cell r="F16">
             <v>0.89782720000000005</v>
           </cell>
-          <cell r="G16">
-            <v>0.50104280000000001</v>
-          </cell>
-          <cell r="H16">
-            <v>0.90299309999999999</v>
-          </cell>
-          <cell r="I16">
-            <v>0.81298499999999996</v>
-          </cell>
-          <cell r="N16">
-            <v>0.61209590000000003</v>
-          </cell>
-          <cell r="O16">
-            <v>0.89361699999999999</v>
-          </cell>
-          <cell r="P16">
-            <v>0.83031560000000004</v>
-          </cell>
           <cell r="R16">
             <v>0.62304479999999995</v>
           </cell>
@@ -3106,24 +5024,6 @@
           <cell r="F17">
             <v>0.90506980000000004</v>
           </cell>
-          <cell r="G17">
-            <v>0.50104280000000001</v>
-          </cell>
-          <cell r="H17">
-            <v>0.90299309999999999</v>
-          </cell>
-          <cell r="I17">
-            <v>0.81298499999999996</v>
-          </cell>
-          <cell r="N17">
-            <v>0.61209590000000003</v>
-          </cell>
-          <cell r="O17">
-            <v>0.89361699999999999</v>
-          </cell>
-          <cell r="P17">
-            <v>0.83031560000000004</v>
-          </cell>
           <cell r="R17">
             <v>0.62304479999999995</v>
           </cell>
@@ -3141,24 +5041,6 @@
           <cell r="F18">
             <v>0.90972580000000003</v>
           </cell>
-          <cell r="G18">
-            <v>0.50104280000000001</v>
-          </cell>
-          <cell r="H18">
-            <v>0.90299309999999999</v>
-          </cell>
-          <cell r="I18">
-            <v>0.81298499999999996</v>
-          </cell>
-          <cell r="N18">
-            <v>0.61209590000000003</v>
-          </cell>
-          <cell r="O18">
-            <v>0.89361699999999999</v>
-          </cell>
-          <cell r="P18">
-            <v>0.83031560000000004</v>
-          </cell>
           <cell r="R18">
             <v>0.62304479999999995</v>
           </cell>
@@ -3176,24 +5058,6 @@
           <cell r="F19">
             <v>0.91308849999999997</v>
           </cell>
-          <cell r="G19">
-            <v>0.50104280000000001</v>
-          </cell>
-          <cell r="H19">
-            <v>0.90299309999999999</v>
-          </cell>
-          <cell r="I19">
-            <v>0.81298499999999996</v>
-          </cell>
-          <cell r="N19">
-            <v>0.61209590000000003</v>
-          </cell>
-          <cell r="O19">
-            <v>0.89361699999999999</v>
-          </cell>
-          <cell r="P19">
-            <v>0.83031560000000004</v>
-          </cell>
           <cell r="R19">
             <v>0.62304479999999995</v>
           </cell>
@@ -3211,24 +5075,6 @@
           <cell r="F20">
             <v>0.91438180000000002</v>
           </cell>
-          <cell r="G20">
-            <v>0.50104280000000001</v>
-          </cell>
-          <cell r="H20">
-            <v>0.90299309999999999</v>
-          </cell>
-          <cell r="I20">
-            <v>0.81298499999999996</v>
-          </cell>
-          <cell r="N20">
-            <v>0.61209590000000003</v>
-          </cell>
-          <cell r="O20">
-            <v>0.89361699999999999</v>
-          </cell>
-          <cell r="P20">
-            <v>0.83031560000000004</v>
-          </cell>
           <cell r="R20">
             <v>0.62304479999999995</v>
           </cell>
@@ -3246,24 +5092,6 @@
           <cell r="F21">
             <v>0.91877909999999996</v>
           </cell>
-          <cell r="G21">
-            <v>0.50104280000000001</v>
-          </cell>
-          <cell r="H21">
-            <v>0.90299309999999999</v>
-          </cell>
-          <cell r="I21">
-            <v>0.81298499999999996</v>
-          </cell>
-          <cell r="N21">
-            <v>0.61209590000000003</v>
-          </cell>
-          <cell r="O21">
-            <v>0.89361699999999999</v>
-          </cell>
-          <cell r="P21">
-            <v>0.83031560000000004</v>
-          </cell>
           <cell r="R21">
             <v>0.62304479999999995</v>
           </cell>
@@ -3281,24 +5109,6 @@
           <cell r="F22">
             <v>0.91877909999999996</v>
           </cell>
-          <cell r="G22">
-            <v>0.50104280000000001</v>
-          </cell>
-          <cell r="H22">
-            <v>0.90299309999999999</v>
-          </cell>
-          <cell r="I22">
-            <v>0.81298499999999996</v>
-          </cell>
-          <cell r="N22">
-            <v>0.61209590000000003</v>
-          </cell>
-          <cell r="O22">
-            <v>0.89361699999999999</v>
-          </cell>
-          <cell r="P22">
-            <v>0.83031560000000004</v>
-          </cell>
           <cell r="R22">
             <v>0.62304479999999995</v>
           </cell>
@@ -3316,24 +5126,6 @@
           <cell r="F23">
             <v>0.91903780000000002</v>
           </cell>
-          <cell r="G23">
-            <v>0.50104280000000001</v>
-          </cell>
-          <cell r="H23">
-            <v>0.90299309999999999</v>
-          </cell>
-          <cell r="I23">
-            <v>0.81298499999999996</v>
-          </cell>
-          <cell r="N23">
-            <v>0.61209590000000003</v>
-          </cell>
-          <cell r="O23">
-            <v>0.89361699999999999</v>
-          </cell>
-          <cell r="P23">
-            <v>0.83031560000000004</v>
-          </cell>
           <cell r="R23">
             <v>0.62304479999999995</v>
           </cell>
@@ -3351,24 +5143,6 @@
           <cell r="F24">
             <v>0.91903780000000002</v>
           </cell>
-          <cell r="G24">
-            <v>0.50104280000000001</v>
-          </cell>
-          <cell r="H24">
-            <v>0.90299309999999999</v>
-          </cell>
-          <cell r="I24">
-            <v>0.81298499999999996</v>
-          </cell>
-          <cell r="N24">
-            <v>0.61209590000000003</v>
-          </cell>
-          <cell r="O24">
-            <v>0.89361699999999999</v>
-          </cell>
-          <cell r="P24">
-            <v>0.83031560000000004</v>
-          </cell>
           <cell r="R24">
             <v>0.62304479999999995</v>
           </cell>
@@ -3378,6 +5152,7 @@
         </row>
       </sheetData>
       <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4789,13 +6564,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection sqref="A1:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="0" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
@@ -6098,4 +7873,1286 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K14" sqref="A1:K14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="9.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="4.42578125" style="1" customWidth="1"/>
+    <col min="5" max="7" width="9.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="5.42578125" style="1" customWidth="1"/>
+    <col min="9" max="11" width="9.5703125" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="1">
+        <v>11677</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3934</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F3" s="1">
+        <v>11677</v>
+      </c>
+      <c r="G3" s="1">
+        <v>3934</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="J3" s="1">
+        <v>11677</v>
+      </c>
+      <c r="K3" s="1">
+        <v>3934</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2221</v>
+      </c>
+      <c r="C4" s="1">
+        <v>948</v>
+      </c>
+      <c r="E4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1444</v>
+      </c>
+      <c r="G4" s="1">
+        <v>547</v>
+      </c>
+      <c r="I4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1243</v>
+      </c>
+      <c r="K4" s="1">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1">
+        <v>8380</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2589</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>8799</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2875</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>9595</v>
+      </c>
+      <c r="K5" s="1">
+        <v>3103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1">
+        <v>551</v>
+      </c>
+      <c r="C6" s="1">
+        <v>191</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>961</v>
+      </c>
+      <c r="G6" s="1">
+        <v>306</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1">
+        <v>561</v>
+      </c>
+      <c r="K6" s="1">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1">
+        <v>212</v>
+      </c>
+      <c r="C7" s="1">
+        <v>66</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2</v>
+      </c>
+      <c r="F7" s="1">
+        <v>224</v>
+      </c>
+      <c r="G7" s="1">
+        <v>102</v>
+      </c>
+      <c r="I7" s="1">
+        <v>2</v>
+      </c>
+      <c r="J7" s="1">
+        <v>139</v>
+      </c>
+      <c r="K7" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1">
+        <v>110</v>
+      </c>
+      <c r="C8" s="1">
+        <v>44</v>
+      </c>
+      <c r="E8" s="1">
+        <v>3</v>
+      </c>
+      <c r="F8" s="1">
+        <v>115</v>
+      </c>
+      <c r="G8" s="1">
+        <v>41</v>
+      </c>
+      <c r="I8" s="1">
+        <v>3</v>
+      </c>
+      <c r="J8" s="1">
+        <v>63</v>
+      </c>
+      <c r="K8" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1">
+        <v>68</v>
+      </c>
+      <c r="C9" s="1">
+        <v>34</v>
+      </c>
+      <c r="E9" s="1">
+        <v>4</v>
+      </c>
+      <c r="F9" s="1">
+        <v>48</v>
+      </c>
+      <c r="G9" s="1">
+        <v>25</v>
+      </c>
+      <c r="I9" s="1">
+        <v>4</v>
+      </c>
+      <c r="J9" s="1">
+        <v>27</v>
+      </c>
+      <c r="K9" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1">
+        <v>48</v>
+      </c>
+      <c r="C10" s="1">
+        <v>20</v>
+      </c>
+      <c r="E10" s="1">
+        <v>5</v>
+      </c>
+      <c r="F10" s="1">
+        <v>45</v>
+      </c>
+      <c r="G10" s="1">
+        <v>17</v>
+      </c>
+      <c r="I10" s="1">
+        <v>5</v>
+      </c>
+      <c r="J10" s="1">
+        <v>17</v>
+      </c>
+      <c r="K10" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>6</v>
+      </c>
+      <c r="B11" s="1">
+        <v>35</v>
+      </c>
+      <c r="C11" s="1">
+        <v>14</v>
+      </c>
+      <c r="E11" s="1">
+        <v>6</v>
+      </c>
+      <c r="F11" s="1">
+        <v>12</v>
+      </c>
+      <c r="G11" s="1">
+        <v>6</v>
+      </c>
+      <c r="I11" s="1">
+        <v>6</v>
+      </c>
+      <c r="J11" s="1">
+        <v>10</v>
+      </c>
+      <c r="K11" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>7</v>
+      </c>
+      <c r="B12" s="1">
+        <v>40</v>
+      </c>
+      <c r="C12" s="1">
+        <v>19</v>
+      </c>
+      <c r="E12" s="1">
+        <v>7</v>
+      </c>
+      <c r="F12" s="1">
+        <v>25</v>
+      </c>
+      <c r="G12" s="1">
+        <v>8</v>
+      </c>
+      <c r="I12" s="1">
+        <v>7</v>
+      </c>
+      <c r="J12" s="1">
+        <v>18</v>
+      </c>
+      <c r="K12" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>8</v>
+      </c>
+      <c r="B13" s="1">
+        <v>11</v>
+      </c>
+      <c r="C13" s="1">
+        <v>8</v>
+      </c>
+      <c r="E13" s="1">
+        <v>8</v>
+      </c>
+      <c r="F13" s="1">
+        <v>4</v>
+      </c>
+      <c r="G13" s="1">
+        <v>7</v>
+      </c>
+      <c r="I13" s="1">
+        <v>8</v>
+      </c>
+      <c r="J13" s="1">
+        <v>4</v>
+      </c>
+      <c r="K13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>9</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>9</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <v>9</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0.68750549999999999</v>
+      </c>
+      <c r="E2">
+        <v>0.93828489999999998</v>
+      </c>
+      <c r="F2">
+        <v>0.88382830000000001</v>
+      </c>
+      <c r="G2">
+        <v>0.54809289999999999</v>
+      </c>
+      <c r="H2">
+        <v>0.87008779999999997</v>
+      </c>
+      <c r="I2">
+        <v>0.78542190000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0.75072340000000004</v>
+      </c>
+      <c r="E3">
+        <v>0.94746790000000003</v>
+      </c>
+      <c r="F3">
+        <v>0.92562920000000004</v>
+      </c>
+      <c r="G3">
+        <v>0.62884700000000004</v>
+      </c>
+      <c r="H3">
+        <v>0.92072920000000003</v>
+      </c>
+      <c r="I3">
+        <v>0.81877560000000005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>0.77562469999999994</v>
+      </c>
+      <c r="E4">
+        <v>0.94881839999999995</v>
+      </c>
+      <c r="F4">
+        <v>0.93773399999999996</v>
+      </c>
+      <c r="G4">
+        <v>0.65927219999999997</v>
+      </c>
+      <c r="H4">
+        <v>0.92896690000000004</v>
+      </c>
+      <c r="I4">
+        <v>0.83331880000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>0.78448050000000003</v>
+      </c>
+      <c r="E5">
+        <v>0.95003380000000004</v>
+      </c>
+      <c r="F5">
+        <v>0.94234960000000001</v>
+      </c>
+      <c r="G5">
+        <v>0.67032000000000003</v>
+      </c>
+      <c r="H5">
+        <v>0.93396349999999995</v>
+      </c>
+      <c r="I5">
+        <v>0.83863100000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>0.79359930000000001</v>
+      </c>
+      <c r="E6">
+        <v>0.95030380000000003</v>
+      </c>
+      <c r="F6">
+        <v>0.94443960000000005</v>
+      </c>
+      <c r="G6">
+        <v>0.68040330000000004</v>
+      </c>
+      <c r="H6">
+        <v>0.93477379999999999</v>
+      </c>
+      <c r="I6">
+        <v>0.84246279999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>0.7987725</v>
+      </c>
+      <c r="E7">
+        <v>0.95003380000000004</v>
+      </c>
+      <c r="F7">
+        <v>0.94565880000000002</v>
+      </c>
+      <c r="G7">
+        <v>0.68557650000000003</v>
+      </c>
+      <c r="H7">
+        <v>0.93625930000000002</v>
+      </c>
+      <c r="I7">
+        <v>0.84368200000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>0.80035069999999997</v>
+      </c>
+      <c r="E8">
+        <v>0.95016880000000004</v>
+      </c>
+      <c r="F8">
+        <v>0.94679089999999999</v>
+      </c>
+      <c r="G8">
+        <v>0.68706710000000004</v>
+      </c>
+      <c r="H8">
+        <v>0.93774480000000004</v>
+      </c>
+      <c r="I8">
+        <v>0.84446569999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>0.80473479999999997</v>
+      </c>
+      <c r="E9">
+        <v>0.95138420000000001</v>
+      </c>
+      <c r="F9">
+        <v>0.94748759999999999</v>
+      </c>
+      <c r="G9">
+        <v>0.69074970000000002</v>
+      </c>
+      <c r="H9">
+        <v>0.94044559999999999</v>
+      </c>
+      <c r="I9">
+        <v>0.84559779999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <v>0.80543620000000005</v>
+      </c>
+      <c r="E10">
+        <v>0.9520594</v>
+      </c>
+      <c r="F10">
+        <v>0.94757469999999999</v>
+      </c>
+      <c r="G10">
+        <v>0.69101270000000004</v>
+      </c>
+      <c r="H10">
+        <v>0.94098579999999998</v>
+      </c>
+      <c r="I10">
+        <v>0.84585909999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>110</v>
+      </c>
+      <c r="B11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11">
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <v>0.80543620000000005</v>
+      </c>
+      <c r="E11">
+        <v>0.9520594</v>
+      </c>
+      <c r="F11">
+        <v>0.94757469999999999</v>
+      </c>
+      <c r="G11">
+        <v>0.69101270000000004</v>
+      </c>
+      <c r="H11">
+        <v>0.94098579999999998</v>
+      </c>
+      <c r="I11">
+        <v>0.84585909999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <v>0.80543620000000005</v>
+      </c>
+      <c r="E12">
+        <v>0.9520594</v>
+      </c>
+      <c r="F12">
+        <v>0.94757469999999999</v>
+      </c>
+      <c r="G12">
+        <v>0.69101270000000004</v>
+      </c>
+      <c r="H12">
+        <v>0.94098579999999998</v>
+      </c>
+      <c r="I12">
+        <v>0.84585909999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>126</v>
+      </c>
+      <c r="G13" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>112</v>
+      </c>
+      <c r="B14" t="s">
+        <v>113</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0.60114699999999999</v>
+      </c>
+      <c r="E14">
+        <v>0.93689149999999999</v>
+      </c>
+      <c r="F14">
+        <v>0.8564408</v>
+      </c>
+      <c r="G14">
+        <v>0.48149110000000001</v>
+      </c>
+      <c r="H14">
+        <v>0.88388029999999995</v>
+      </c>
+      <c r="I14">
+        <v>0.74185199999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>110</v>
+      </c>
+      <c r="B15" t="s">
+        <v>113</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>0.66319079999999997</v>
+      </c>
+      <c r="E15">
+        <v>0.94734940000000001</v>
+      </c>
+      <c r="F15">
+        <v>0.88644590000000001</v>
+      </c>
+      <c r="G15">
+        <v>0.54718460000000002</v>
+      </c>
+      <c r="H15">
+        <v>0.92210599999999998</v>
+      </c>
+      <c r="I15">
+        <v>0.7860838</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>110</v>
+      </c>
+      <c r="B16" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>0.68482790000000004</v>
+      </c>
+      <c r="E16">
+        <v>0.94951319999999995</v>
+      </c>
+      <c r="F16">
+        <v>0.89782720000000005</v>
+      </c>
+      <c r="G16">
+        <v>0.56673620000000002</v>
+      </c>
+      <c r="H16">
+        <v>0.93328529999999998</v>
+      </c>
+      <c r="I16">
+        <v>0.79901710000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>110</v>
+      </c>
+      <c r="B17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>0.70177270000000003</v>
+      </c>
+      <c r="E17">
+        <v>0.94987379999999999</v>
+      </c>
+      <c r="F17">
+        <v>0.90506980000000004</v>
+      </c>
+      <c r="G17">
+        <v>0.59332640000000003</v>
+      </c>
+      <c r="H17">
+        <v>0.93436710000000001</v>
+      </c>
+      <c r="I17">
+        <v>0.80832899999999996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>110</v>
+      </c>
+      <c r="B18" t="s">
+        <v>113</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="D18">
+        <v>0.71011469999999999</v>
+      </c>
+      <c r="E18">
+        <v>0.94951319999999995</v>
+      </c>
+      <c r="F18">
+        <v>0.90972580000000003</v>
+      </c>
+      <c r="G18">
+        <v>0.60349319999999995</v>
+      </c>
+      <c r="H18">
+        <v>0.93544899999999997</v>
+      </c>
+      <c r="I18">
+        <v>0.81065699999999996</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>110</v>
+      </c>
+      <c r="B19" t="s">
+        <v>113</v>
+      </c>
+      <c r="C19">
+        <v>5</v>
+      </c>
+      <c r="D19">
+        <v>0.71611049999999998</v>
+      </c>
+      <c r="E19">
+        <v>0.95023440000000003</v>
+      </c>
+      <c r="F19">
+        <v>0.91308849999999997</v>
+      </c>
+      <c r="G19">
+        <v>0.6149635</v>
+      </c>
+      <c r="H19">
+        <v>0.93617019999999995</v>
+      </c>
+      <c r="I19">
+        <v>0.81479570000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>110</v>
+      </c>
+      <c r="B20" t="s">
+        <v>113</v>
+      </c>
+      <c r="C20">
+        <v>6</v>
+      </c>
+      <c r="D20">
+        <v>0.71897809999999995</v>
+      </c>
+      <c r="E20">
+        <v>0.95059499999999997</v>
+      </c>
+      <c r="F20">
+        <v>0.91438180000000002</v>
+      </c>
+      <c r="G20">
+        <v>0.61626689999999995</v>
+      </c>
+      <c r="H20">
+        <v>0.93761269999999997</v>
+      </c>
+      <c r="I20">
+        <v>0.81867559999999995</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>110</v>
+      </c>
+      <c r="B21" t="s">
+        <v>113</v>
+      </c>
+      <c r="C21">
+        <v>7</v>
+      </c>
+      <c r="D21">
+        <v>0.72106360000000003</v>
+      </c>
+      <c r="E21">
+        <v>0.94843129999999998</v>
+      </c>
+      <c r="F21">
+        <v>0.91877909999999996</v>
+      </c>
+      <c r="G21">
+        <v>0.61783109999999997</v>
+      </c>
+      <c r="H21">
+        <v>0.93580960000000002</v>
+      </c>
+      <c r="I21">
+        <v>0.82152099999999995</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>110</v>
+      </c>
+      <c r="B22" t="s">
+        <v>113</v>
+      </c>
+      <c r="C22">
+        <v>8</v>
+      </c>
+      <c r="D22">
+        <v>0.7241919</v>
+      </c>
+      <c r="E22">
+        <v>0.94951319999999995</v>
+      </c>
+      <c r="F22">
+        <v>0.91877909999999996</v>
+      </c>
+      <c r="G22">
+        <v>0.61783109999999997</v>
+      </c>
+      <c r="H22">
+        <v>0.93869460000000005</v>
+      </c>
+      <c r="I22">
+        <v>0.82152099999999995</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>110</v>
+      </c>
+      <c r="B23" t="s">
+        <v>113</v>
+      </c>
+      <c r="C23">
+        <v>9</v>
+      </c>
+      <c r="D23">
+        <v>0.7244526</v>
+      </c>
+      <c r="E23">
+        <v>0.94951319999999995</v>
+      </c>
+      <c r="F23">
+        <v>0.91903780000000002</v>
+      </c>
+      <c r="G23">
+        <v>0.61783109999999997</v>
+      </c>
+      <c r="H23">
+        <v>0.93869460000000005</v>
+      </c>
+      <c r="I23">
+        <v>0.82152099999999995</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>110</v>
+      </c>
+      <c r="B24" t="s">
+        <v>113</v>
+      </c>
+      <c r="C24">
+        <v>10</v>
+      </c>
+      <c r="D24">
+        <v>0.7244526</v>
+      </c>
+      <c r="E24">
+        <v>0.94951319999999995</v>
+      </c>
+      <c r="F24">
+        <v>0.91903780000000002</v>
+      </c>
+      <c r="G24">
+        <v>0.61783109999999997</v>
+      </c>
+      <c r="H24">
+        <v>0.93869460000000005</v>
+      </c>
+      <c r="I24">
+        <v>0.82152099999999995</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D1:G11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G11" sqref="D1:G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="2"/>
+    <col min="3" max="3" width="38.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="39" style="2" customWidth="1"/>
+    <col min="6" max="6" width="38.28515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="42.5703125" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D1" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E1" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="4:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D2" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="4:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D3" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D4" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D5" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D6" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D7" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="8" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D8" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D9" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D10" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D11" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>